--- a/Producteca_img.xlsx
+++ b/Producteca_img.xlsx
@@ -4170,8 +4170,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I2523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2062" workbookViewId="0">
-      <selection activeCell="D2111" sqref="D2111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62125,7 +62125,7 @@
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1"/>
     <hyperlink ref="F17" r:id="rId2"/>
-    <hyperlink ref="F2105"/>
+    <hyperlink ref="F2105" display="https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/1120330/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/1120330/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/1120330/3.jpg,https://raw.git"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>

--- a/Producteca_img.xlsx
+++ b/Producteca_img.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9843" uniqueCount="1259">
   <si>
     <t>Id Producto</t>
   </si>
@@ -3723,6 +3723,87 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520007/131.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520007/132.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520007/133.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520007/134.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301558/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301558/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301558/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301000/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301000/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301008/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301008/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301008/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301805/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8301805/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/7800000/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/7800000/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/2401806/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/2401806/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/2401806/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/2401806/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701542/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701542/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701542/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701542/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701575/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701575/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701575/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701495/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701495/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701495/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701495/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701494/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701494/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701494/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8701494/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703615/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703615/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703619/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703619/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703619/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703619/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8503012/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/7707522/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703500/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703500/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703500/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8703500/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/7707570/1.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400119/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400119/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400119/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400119/4.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400119/5.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400010/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400010/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400128/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400128/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400689/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400689/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8400689/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306101/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306101/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306101/3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/4.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/5.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/6.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8306100/7.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517905/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517905/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517905/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517905/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8717033/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8717033/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8717033/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8717033/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517000/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8517000/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520265/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520265/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520014/1.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520014/2.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520014/3.jpg,https://raw.githubusercontent.com/edgardoraul/imagenes_rerda/main/8520014/4.jpg</t>
   </si>
 </sst>
 </file>
@@ -4077,8 +4158,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I2523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A2434" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,7 +4198,7 @@
         <v>982</v>
       </c>
       <c r="I1">
-        <v>214</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4292,7 +4373,12 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="F8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -4310,7 +4396,12 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="F9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -4328,7 +4419,12 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="F10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4346,7 +4442,12 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="F11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4364,7 +4465,12 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="F12" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4382,7 +4488,12 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="F13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4400,8 +4511,12 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4419,7 +4534,12 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="F15" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4437,7 +4557,12 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="F16" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4455,8 +4580,12 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4474,7 +4603,12 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="F18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4492,7 +4626,12 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="F19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4510,7 +4649,12 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="F20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4528,7 +4672,12 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="F21" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -4546,7 +4695,12 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="F22" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4564,7 +4718,12 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="F23" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4582,7 +4741,12 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="F24" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4600,7 +4764,12 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="F25" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4618,7 +4787,12 @@
       <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="F26" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4636,7 +4810,12 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="F27" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4654,7 +4833,12 @@
       <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="F28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4672,7 +4856,12 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="F29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4690,7 +4879,12 @@
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="F30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4708,7 +4902,12 @@
       <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="F31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -4726,7 +4925,12 @@
       <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="F32" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -4744,7 +4948,12 @@
       <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="F33" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4762,7 +4971,12 @@
       <c r="E34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="F34" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4780,7 +4994,12 @@
       <c r="E35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="F35" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4798,7 +5017,12 @@
       <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="F36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4816,7 +5040,12 @@
       <c r="E37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="F37" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4834,7 +5063,12 @@
       <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="F38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4852,7 +5086,12 @@
       <c r="E39" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="F39" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -4870,7 +5109,12 @@
       <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="F40" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -4888,7 +5132,12 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="F41" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -10265,7 +10514,12 @@
       <c r="E275" t="s">
         <v>41</v>
       </c>
-      <c r="G275" s="1"/>
+      <c r="F275" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -22910,7 +23164,12 @@
       <c r="E825" t="s">
         <v>358</v>
       </c>
-      <c r="G825" s="1"/>
+      <c r="F825" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G825" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826">
@@ -22925,7 +23184,12 @@
       <c r="D826" t="s">
         <v>357</v>
       </c>
-      <c r="G826" s="1"/>
+      <c r="F826" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G826" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827">
@@ -33684,7 +33948,12 @@
       <c r="E1294" t="s">
         <v>528</v>
       </c>
-      <c r="G1294" s="1"/>
+      <c r="F1294" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G1294" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1295">
@@ -33840,7 +34109,12 @@
       <c r="E1301" t="s">
         <v>528</v>
       </c>
-      <c r="G1301" s="1"/>
+      <c r="F1301" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G1301" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1302">
@@ -33904,7 +34178,12 @@
       <c r="E1304" t="s">
         <v>536</v>
       </c>
-      <c r="G1304" s="1"/>
+      <c r="F1304" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G1304" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1305">
@@ -33922,7 +34201,12 @@
       <c r="E1305" t="s">
         <v>536</v>
       </c>
-      <c r="G1305" s="1"/>
+      <c r="F1305" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G1305" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1306">
@@ -33937,7 +34221,12 @@
       <c r="D1306" t="s">
         <v>538</v>
       </c>
-      <c r="G1306" s="1"/>
+      <c r="F1306" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G1306" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1307">
@@ -33952,7 +34241,12 @@
       <c r="D1307" t="s">
         <v>539</v>
       </c>
-      <c r="G1307" s="1"/>
+      <c r="F1307" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G1307" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1308">
@@ -33970,7 +34264,12 @@
       <c r="E1308" t="s">
         <v>541</v>
       </c>
-      <c r="G1308" s="1"/>
+      <c r="F1308" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G1308" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1309">
@@ -33985,7 +34284,12 @@
       <c r="D1309" t="s">
         <v>542</v>
       </c>
-      <c r="G1309" s="1"/>
+      <c r="F1309" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G1309" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1310">
@@ -34000,7 +34304,12 @@
       <c r="D1310" t="s">
         <v>543</v>
       </c>
-      <c r="G1310" s="1"/>
+      <c r="F1310" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G1310" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1311">
@@ -34015,7 +34324,12 @@
       <c r="D1311" t="s">
         <v>544</v>
       </c>
-      <c r="G1311" s="1"/>
+      <c r="F1311" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G1311" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1312">
@@ -34769,7 +35083,12 @@
       <c r="E1344" t="s">
         <v>528</v>
       </c>
-      <c r="G1344" s="1"/>
+      <c r="F1344" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1344" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1345">
@@ -34787,7 +35106,12 @@
       <c r="E1345" t="s">
         <v>548</v>
       </c>
-      <c r="G1345" s="1"/>
+      <c r="F1345" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1345" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1346">
@@ -34805,7 +35129,12 @@
       <c r="E1346" t="s">
         <v>549</v>
       </c>
-      <c r="G1346" s="1"/>
+      <c r="F1346" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G1346" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1347">
@@ -34823,7 +35152,12 @@
       <c r="E1347" t="s">
         <v>528</v>
       </c>
-      <c r="G1347" s="1"/>
+      <c r="F1347" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G1347" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1348">
@@ -34841,7 +35175,12 @@
       <c r="E1348" t="s">
         <v>528</v>
       </c>
-      <c r="G1348" s="1"/>
+      <c r="F1348" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G1348" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1349">
@@ -34859,7 +35198,12 @@
       <c r="E1349" t="s">
         <v>528</v>
       </c>
-      <c r="G1349" s="1"/>
+      <c r="F1349" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G1349" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1350">
@@ -34877,7 +35221,12 @@
       <c r="E1350" t="s">
         <v>528</v>
       </c>
-      <c r="G1350" s="1"/>
+      <c r="F1350" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G1350" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1351">
@@ -34895,7 +35244,12 @@
       <c r="E1351" t="s">
         <v>554</v>
       </c>
-      <c r="G1351" s="1"/>
+      <c r="F1351" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G1351" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1352">
@@ -34913,7 +35267,12 @@
       <c r="E1352" t="s">
         <v>555</v>
       </c>
-      <c r="G1352" s="1"/>
+      <c r="F1352" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G1352" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1353">
@@ -34928,7 +35287,12 @@
       <c r="D1353" t="s">
         <v>556</v>
       </c>
-      <c r="G1353" s="1"/>
+      <c r="F1353" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G1353" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1354">
@@ -34946,7 +35310,12 @@
       <c r="E1354">
         <v>9</v>
       </c>
-      <c r="G1354" s="1"/>
+      <c r="F1354" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1354" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1355">
@@ -34964,7 +35333,12 @@
       <c r="E1355">
         <v>7</v>
       </c>
-      <c r="G1355" s="1"/>
+      <c r="F1355" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1355" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1356">
@@ -34982,7 +35356,12 @@
       <c r="E1356">
         <v>8</v>
       </c>
-      <c r="G1356" s="1"/>
+      <c r="F1356" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1356" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1357">
@@ -35000,7 +35379,12 @@
       <c r="E1357">
         <v>10</v>
       </c>
-      <c r="G1357" s="1"/>
+      <c r="F1357" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1357" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1358">
@@ -35018,7 +35402,12 @@
       <c r="E1358">
         <v>11</v>
       </c>
-      <c r="G1358" s="1"/>
+      <c r="F1358" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1358" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1359">
@@ -35036,7 +35425,12 @@
       <c r="E1359">
         <v>12</v>
       </c>
-      <c r="G1359" s="1"/>
+      <c r="F1359" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1359" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1360">
@@ -35100,7 +35494,12 @@
       <c r="E1362" t="s">
         <v>561</v>
       </c>
-      <c r="G1362" s="1"/>
+      <c r="F1362" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G1362" s="1" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1363">
@@ -35118,8 +35517,11 @@
       <c r="E1363" t="s">
         <v>561</v>
       </c>
+      <c r="F1363" t="s">
+        <v>1258</v>
+      </c>
       <c r="G1363" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
@@ -35142,7 +35544,7 @@
         <v>987</v>
       </c>
       <c r="G1364" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
@@ -37281,7 +37683,7 @@
         <v>988</v>
       </c>
       <c r="G1457" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
@@ -37301,7 +37703,7 @@
         <v>931</v>
       </c>
       <c r="G1458" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
@@ -37321,7 +37723,7 @@
         <v>932</v>
       </c>
       <c r="G1459" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
@@ -37341,7 +37743,7 @@
         <v>933</v>
       </c>
       <c r="G1460" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
@@ -37361,7 +37763,7 @@
         <v>934</v>
       </c>
       <c r="G1461" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
@@ -37381,7 +37783,7 @@
         <v>989</v>
       </c>
       <c r="G1462" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
@@ -51132,7 +51534,7 @@
         <v>990</v>
       </c>
       <c r="G2060" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2061" spans="1:7" x14ac:dyDescent="0.25">
@@ -51152,7 +51554,7 @@
         <v>990</v>
       </c>
       <c r="G2061" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2062" spans="1:7" x14ac:dyDescent="0.25">
@@ -51172,7 +51574,7 @@
         <v>935</v>
       </c>
       <c r="G2062" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2063" spans="1:7" x14ac:dyDescent="0.25">
@@ -51192,7 +51594,7 @@
         <v>935</v>
       </c>
       <c r="G2063" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
@@ -51215,7 +51617,7 @@
         <v>991</v>
       </c>
       <c r="G2064" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2065" spans="1:7" x14ac:dyDescent="0.25">
@@ -51238,7 +51640,7 @@
         <v>936</v>
       </c>
       <c r="G2065" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2066" spans="1:7" x14ac:dyDescent="0.25">
@@ -51261,7 +51663,7 @@
         <v>936</v>
       </c>
       <c r="G2066" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2067" spans="1:7" x14ac:dyDescent="0.25">
@@ -51281,7 +51683,7 @@
         <v>937</v>
       </c>
       <c r="G2067" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2068" spans="1:7" x14ac:dyDescent="0.25">
@@ -51301,7 +51703,7 @@
         <v>992</v>
       </c>
       <c r="G2068" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2069" spans="1:7" x14ac:dyDescent="0.25">
@@ -51321,7 +51723,7 @@
         <v>939</v>
       </c>
       <c r="G2069" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2070" spans="1:7" x14ac:dyDescent="0.25">
@@ -51341,7 +51743,7 @@
         <v>938</v>
       </c>
       <c r="G2070" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2071" spans="1:7" x14ac:dyDescent="0.25">
@@ -51364,7 +51766,7 @@
         <v>993</v>
       </c>
       <c r="G2071" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2072" spans="1:7" x14ac:dyDescent="0.25">
@@ -51384,7 +51786,7 @@
         <v>994</v>
       </c>
       <c r="G2072" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2073" spans="1:7" x14ac:dyDescent="0.25">
@@ -51404,7 +51806,7 @@
         <v>940</v>
       </c>
       <c r="G2073" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2074" spans="1:7" x14ac:dyDescent="0.25">
@@ -51424,7 +51826,7 @@
         <v>995</v>
       </c>
       <c r="G2074" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2075" spans="1:7" x14ac:dyDescent="0.25">
@@ -51447,7 +51849,7 @@
         <v>941</v>
       </c>
       <c r="G2075" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2076" spans="1:7" x14ac:dyDescent="0.25">
@@ -51467,7 +51869,7 @@
         <v>996</v>
       </c>
       <c r="G2076" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2077" spans="1:7" x14ac:dyDescent="0.25">
@@ -51487,7 +51889,7 @@
         <v>997</v>
       </c>
       <c r="G2077" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2078" spans="1:7" x14ac:dyDescent="0.25">
@@ -51507,7 +51909,7 @@
         <v>998</v>
       </c>
       <c r="G2078" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2079" spans="1:7" x14ac:dyDescent="0.25">
@@ -51527,7 +51929,7 @@
         <v>999</v>
       </c>
       <c r="G2079" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2080" spans="1:7" x14ac:dyDescent="0.25">
@@ -51547,7 +51949,7 @@
         <v>999</v>
       </c>
       <c r="G2080" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2081" spans="1:7" x14ac:dyDescent="0.25">
@@ -51567,7 +51969,7 @@
         <v>1000</v>
       </c>
       <c r="G2081" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2082" spans="1:7" x14ac:dyDescent="0.25">
@@ -51590,7 +51992,7 @@
         <v>942</v>
       </c>
       <c r="G2082" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2083" spans="1:7" x14ac:dyDescent="0.25">
@@ -51613,7 +52015,7 @@
         <v>942</v>
       </c>
       <c r="G2083" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2084" spans="1:7" x14ac:dyDescent="0.25">
@@ -51636,7 +52038,7 @@
         <v>943</v>
       </c>
       <c r="G2084" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2085" spans="1:7" x14ac:dyDescent="0.25">
@@ -51659,7 +52061,7 @@
         <v>943</v>
       </c>
       <c r="G2085" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2086" spans="1:7" x14ac:dyDescent="0.25">
@@ -51679,7 +52081,7 @@
         <v>944</v>
       </c>
       <c r="G2086" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2087" spans="1:7" x14ac:dyDescent="0.25">
@@ -51699,7 +52101,7 @@
         <v>1001</v>
       </c>
       <c r="G2087" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2088" spans="1:7" x14ac:dyDescent="0.25">
@@ -51719,7 +52121,7 @@
         <v>945</v>
       </c>
       <c r="G2088" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2089" spans="1:7" x14ac:dyDescent="0.25">
@@ -51742,7 +52144,7 @@
         <v>946</v>
       </c>
       <c r="G2089" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2090" spans="1:7" x14ac:dyDescent="0.25">
@@ -51762,7 +52164,7 @@
         <v>947</v>
       </c>
       <c r="G2090" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2091" spans="1:7" x14ac:dyDescent="0.25">
@@ -51782,7 +52184,7 @@
         <v>1002</v>
       </c>
       <c r="G2091" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2092" spans="1:7" x14ac:dyDescent="0.25">
@@ -51805,7 +52207,7 @@
         <v>948</v>
       </c>
       <c r="G2092" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2093" spans="1:7" x14ac:dyDescent="0.25">
@@ -51825,7 +52227,7 @@
         <v>949</v>
       </c>
       <c r="G2093" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2094" spans="1:7" x14ac:dyDescent="0.25">
@@ -51848,7 +52250,7 @@
         <v>1003</v>
       </c>
       <c r="G2094" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2095" spans="1:7" x14ac:dyDescent="0.25">
@@ -51868,7 +52270,7 @@
         <v>1004</v>
       </c>
       <c r="G2095" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2096" spans="1:7" x14ac:dyDescent="0.25">
@@ -51888,7 +52290,7 @@
         <v>1004</v>
       </c>
       <c r="G2096" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2097" spans="1:7" x14ac:dyDescent="0.25">
@@ -51911,7 +52313,7 @@
         <v>1005</v>
       </c>
       <c r="G2097" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2098" spans="1:7" x14ac:dyDescent="0.25">
@@ -51934,7 +52336,7 @@
         <v>1006</v>
       </c>
       <c r="G2098" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2099" spans="1:7" x14ac:dyDescent="0.25">
@@ -52118,7 +52520,7 @@
         <v>950</v>
       </c>
       <c r="G2106" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2107" spans="1:7" x14ac:dyDescent="0.25">
@@ -52138,7 +52540,7 @@
         <v>1007</v>
       </c>
       <c r="G2107" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2108" spans="1:7" x14ac:dyDescent="0.25">
@@ -52161,7 +52563,7 @@
         <v>1008</v>
       </c>
       <c r="G2108" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
@@ -52184,7 +52586,7 @@
         <v>951</v>
       </c>
       <c r="G2109" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2110" spans="1:7" x14ac:dyDescent="0.25">
@@ -52207,7 +52609,7 @@
         <v>951</v>
       </c>
       <c r="G2110" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2111" spans="1:7" x14ac:dyDescent="0.25">
@@ -52230,7 +52632,7 @@
         <v>951</v>
       </c>
       <c r="G2111" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2112" spans="1:7" x14ac:dyDescent="0.25">
@@ -52253,7 +52655,7 @@
         <v>951</v>
       </c>
       <c r="G2112" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2113" spans="1:7" x14ac:dyDescent="0.25">
@@ -52276,7 +52678,7 @@
         <v>951</v>
       </c>
       <c r="G2113" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2114" spans="1:7" x14ac:dyDescent="0.25">
@@ -52299,7 +52701,7 @@
         <v>951</v>
       </c>
       <c r="G2114" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2115" spans="1:7" x14ac:dyDescent="0.25">
@@ -52322,7 +52724,7 @@
         <v>951</v>
       </c>
       <c r="G2115" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2116" spans="1:7" x14ac:dyDescent="0.25">
@@ -52345,7 +52747,7 @@
         <v>951</v>
       </c>
       <c r="G2116" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2117" spans="1:7" x14ac:dyDescent="0.25">
@@ -52368,7 +52770,7 @@
         <v>951</v>
       </c>
       <c r="G2117" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2118" spans="1:7" x14ac:dyDescent="0.25">
@@ -52391,7 +52793,7 @@
         <v>951</v>
       </c>
       <c r="G2118" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2119" spans="1:7" x14ac:dyDescent="0.25">
@@ -52414,7 +52816,7 @@
         <v>952</v>
       </c>
       <c r="G2119" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2120" spans="1:7" x14ac:dyDescent="0.25">
@@ -52437,7 +52839,7 @@
         <v>952</v>
       </c>
       <c r="G2120" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2121" spans="1:7" x14ac:dyDescent="0.25">
@@ -52460,7 +52862,7 @@
         <v>952</v>
       </c>
       <c r="G2121" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2122" spans="1:7" x14ac:dyDescent="0.25">
@@ -52483,7 +52885,7 @@
         <v>952</v>
       </c>
       <c r="G2122" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2123" spans="1:7" x14ac:dyDescent="0.25">
@@ -52506,7 +52908,7 @@
         <v>952</v>
       </c>
       <c r="G2123" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2124" spans="1:7" x14ac:dyDescent="0.25">
@@ -52529,7 +52931,7 @@
         <v>952</v>
       </c>
       <c r="G2124" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2125" spans="1:7" x14ac:dyDescent="0.25">
@@ -52552,7 +52954,7 @@
         <v>952</v>
       </c>
       <c r="G2125" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2126" spans="1:7" x14ac:dyDescent="0.25">
@@ -52575,7 +52977,7 @@
         <v>952</v>
       </c>
       <c r="G2126" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2127" spans="1:7" x14ac:dyDescent="0.25">
@@ -52598,7 +53000,7 @@
         <v>952</v>
       </c>
       <c r="G2127" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2128" spans="1:7" x14ac:dyDescent="0.25">
@@ -52621,7 +53023,7 @@
         <v>952</v>
       </c>
       <c r="G2128" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2129" spans="1:7" x14ac:dyDescent="0.25">
